--- a/data/trans_bre/P40_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.833715934992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.508819063779704</v>
+        <v>7.508819063779698</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5842941671433727</v>
@@ -649,7 +649,7 @@
         <v>0.6865467109761528</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3258168217150328</v>
+        <v>0.3258168217150326</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.72806789310273</v>
+        <v>5.769431145160285</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.430282578966638</v>
+        <v>4.827887609410141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.357078338188044</v>
+        <v>7.612028863948535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.454795596154712</v>
+        <v>3.674719330842593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2869381962188569</v>
+        <v>0.2936088662845012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2124685395717029</v>
+        <v>0.2281748763654384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3834528055613567</v>
+        <v>0.3925275346113349</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1285973726975167</v>
+        <v>0.1429754986678433</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.58939923489575</v>
+        <v>14.60082062604148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.85416784018957</v>
+        <v>13.65921080355577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.50373087373123</v>
+        <v>16.75600464236747</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.60993937568716</v>
+        <v>11.3202023206242</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9386504791936154</v>
+        <v>0.9246642289117998</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8455313137648488</v>
+        <v>0.8515660343817283</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.085718834312262</v>
+        <v>1.099032382375964</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5538019932286453</v>
+        <v>0.55525563559781</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.5832191472214996</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.707780512704059</v>
+        <v>0.7077805127040593</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.21662454482682</v>
+        <v>13.03929653656016</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.652154727407096</v>
+        <v>6.611583913934665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.621728604229862</v>
+        <v>5.392524356084846</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.205488564153914</v>
+        <v>8.287113248137615</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7592625766075827</v>
+        <v>0.7650627033430857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3532204734802489</v>
+        <v>0.3731828915724913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.318300410490952</v>
+        <v>0.3143791148981842</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4560813916602848</v>
+        <v>0.464148974208507</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>21.03423041356248</v>
+        <v>20.77378226632431</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.55467354449892</v>
+        <v>14.04282893484504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.76337878168918</v>
+        <v>12.59856028255099</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.62935245105415</v>
+        <v>14.45467940759118</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.545510596880297</v>
+        <v>1.501425553376707</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9195075191704343</v>
+        <v>0.9769213492466441</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9094558831741917</v>
+        <v>0.9193979780168838</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.032572810429569</v>
+        <v>1.000049430386888</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.537268150972874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.932765295656449</v>
+        <v>6.932765295656446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6152104925924908</v>
@@ -849,7 +849,7 @@
         <v>0.4202611672430965</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3938418514667745</v>
+        <v>0.3938418514667743</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.033050403984215</v>
+        <v>5.426810399096641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.39048811674693</v>
+        <v>6.45912661987682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.403616172601202</v>
+        <v>2.657928928896182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.997987831253256</v>
+        <v>2.664344176175172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3012607275817406</v>
+        <v>0.3091965897102925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3576264538729272</v>
+        <v>0.3599379013241587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.14219579382772</v>
+        <v>0.1514518139052231</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1538777955611712</v>
+        <v>0.1292756899033048</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.63558163070883</v>
+        <v>13.73881687638074</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.63053529889152</v>
+        <v>15.28145326750339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.54723454099826</v>
+        <v>11.04425348102125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.36406086171713</v>
+        <v>11.15948092874454</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.05923284825738</v>
+        <v>1.048797792398596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.161209839536975</v>
+        <v>1.137638642244372</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8057041058921571</v>
+        <v>0.7840566377920279</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7401944957192589</v>
+        <v>0.7182233350907573</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.563728054693307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.686752816911806</v>
+        <v>8.686752816911802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.745317207915614</v>
@@ -949,7 +949,7 @@
         <v>0.6030404993591069</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4550095244793081</v>
+        <v>0.4550095244793079</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.384972412670507</v>
+        <v>8.332824581597427</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.060269410490404</v>
+        <v>5.732061891762618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.509148471286293</v>
+        <v>5.819822379470028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.515413510249769</v>
+        <v>5.419863792259149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4723079056822571</v>
+        <v>0.4652266436894181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3161024228379712</v>
+        <v>0.2934564711370241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3051307193396809</v>
+        <v>0.3353765950934322</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2669205716059245</v>
+        <v>0.252850461183282</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.26427983247715</v>
+        <v>15.70456943919802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.53210151587346</v>
+        <v>13.37708204140345</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.42573031437639</v>
+        <v>13.09209642761424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.09046556667363</v>
+        <v>11.96945397988875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.078083352095409</v>
+        <v>1.084029804121733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8783837290964828</v>
+        <v>0.8631686807785631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9630232076645991</v>
+        <v>0.914651345476581</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6995547645231932</v>
+        <v>0.6945822127283662</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.51344914976781</v>
+        <v>10.62654794118976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.050062082913815</v>
+        <v>8.061638918200755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.2605886481621</v>
+        <v>7.1969612165009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.096458747758574</v>
+        <v>7.057252101929487</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.628174648892467</v>
+        <v>0.628660965549703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4440916586508429</v>
+        <v>0.4550161187463503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4341340441988724</v>
+        <v>0.4239006580093231</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3621453837001531</v>
+        <v>0.3551544491526558</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.66384889459873</v>
+        <v>14.44960736317985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.92880293834195</v>
+        <v>11.99914445378493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.20587493934188</v>
+        <v>11.05235831915748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.58738828538478</v>
+        <v>10.57631871169433</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9782984068573292</v>
+        <v>0.9553593024602133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7498946601834197</v>
+        <v>0.7552692932450199</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7606596611604233</v>
+        <v>0.7366231373138036</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6059027123474914</v>
+        <v>0.5955618227893958</v>
       </c>
     </row>
     <row r="19">
